--- a/medicine/Psychotrope/Mecklenburgische_Brauerei_Lübz/Mecklenburgische_Brauerei_Lübz.xlsx
+++ b/medicine/Psychotrope/Mecklenburgische_Brauerei_Lübz/Mecklenburgische_Brauerei_Lübz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mecklenburgische_Brauerei_L%C3%BCbz</t>
+          <t>Mecklenburgische_Brauerei_Lübz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Mecklenburgische Brauerei Lübz est une brasserie à Lübz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mecklenburgische_Brauerei_L%C3%BCbz</t>
+          <t>Mecklenburgische_Brauerei_Lübz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1877 par August Krüger et commercialisée sous différentes appellations : Bürgerliches Brauhaus GmbH zu Lübz (à partir de 1905), Vereinsbrauerei Mecklenburger Wirte GmbH zu Lübz (à partir de 1907) et Vereinsbrauerei Mecklenburger Wirte AG, Lübz (à partir de 1921). Après la Seconde Guerre mondiale, la brasserie est démontée. L'expropriation n'est pas possible, car l'actionnaire majoritaire (55% des actions) est américain.
 Après 1969, la construction d'une brasserie et l'affectation à la boisson se font avec l'entreprise VEB Brauerei Lübz. Pendant la RDA, la brasserie peut exporter en Allemagne de l'Ouest. Elle fournit des sociétés comme Spar, Aldi et Penny. La brasserie de Lübz est la seule usine de remplissage de canettes de la RDA.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mecklenburgische_Brauerei_L%C3%BCbz</t>
+          <t>Mecklenburgische_Brauerei_Lübz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lübzer Pils (4,9 % vol.)
 Lübzer Bock (7,0 % vol.)
